--- a/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Adjara A.R/C. Batumi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Adjara A.R/C. Batumi Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of hotels and hotel-type establishments and their total area(including local units)\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2.2 Number of hotels and hotel-type establishments and their total area(including local units)\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,9 +186,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +471,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,40 +585,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="14">
-        <v>238532.77</v>
+        <v>70722.2</v>
       </c>
       <c r="C4" s="14">
-        <v>260647.83</v>
+        <v>121798.39999999999</v>
       </c>
       <c r="D4" s="14">
-        <v>256217.9</v>
+        <v>151971</v>
       </c>
       <c r="E4" s="14">
-        <v>257924</v>
+        <v>144527</v>
       </c>
       <c r="F4" s="14">
-        <v>286390</v>
+        <v>176513</v>
       </c>
       <c r="G4" s="14">
-        <v>364085</v>
+        <v>283435</v>
       </c>
       <c r="H4" s="14">
-        <v>511786</v>
+        <v>430161</v>
       </c>
       <c r="I4" s="14">
-        <v>520418</v>
+        <v>466213</v>
       </c>
       <c r="J4" s="14">
-        <v>550138.39</v>
+        <v>486380</v>
       </c>
       <c r="K4" s="14">
-        <v>705651.19999999995</v>
+        <v>474819</v>
       </c>
       <c r="L4" s="14">
-        <v>500856</v>
+        <v>395339</v>
       </c>
       <c r="M4" s="14">
-        <v>653855.19999999995</v>
+        <v>771373</v>
       </c>
       <c r="N4" s="7"/>
     </row>

--- a/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Adjara A.R/C. Batumi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Adjara A.R/C. Batumi Municipality.xlsx
@@ -29,10 +29,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Area of sq.m.</t>
+    <t>Number of hotels and hotel-type establishments and their total area in C. Batumi Municipality (including local units)</t>
   </si>
   <si>
-    <t>Number of hotels and hotel-type establishments and their total area in C. Batumi Municipality (including local units)</t>
+    <t>Area, sq.m.</t>
   </si>
 </sst>
 </file>
@@ -183,10 +183,10 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,21 +482,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
@@ -582,42 +582,42 @@
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
         <v>70722.2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>121798.39999999999</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>151971</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>144527</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>176513</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>283435</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>430161</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>466213</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>486380</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>474819</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>395339</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>771373</v>
       </c>
       <c r="N4" s="7"/>

--- a/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Adjara A.R/C. Batumi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Adjara A.R/C. Batumi Municipality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2.2 Number of hotels and hotel-type establishments and their total area(including local units)\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Number of hotels and hotel-type establishments and their total area(including local units)\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652E68A-D840-4302-BC87-999D313D264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="10515"/>
+    <workbookView xWindow="420" yWindow="1950" windowWidth="18780" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C. Batumi" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
@@ -92,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -125,16 +126,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -147,50 +159,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,165 +470,2142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N662"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6">
         <v>2010</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>2011</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>2012</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>2013</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>2014</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>2015</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <v>2016</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>2017</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <v>2018</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>2019</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="6">
         <v>2020</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <v>2021</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="N2" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>65</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>87</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>96</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>111</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>139</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>170</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>215</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>235</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>232</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>218</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>126</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>243</v>
       </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="N3" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>70722.2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>121798.39999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>151971</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <v>144527</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>176513</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="8">
         <v>283435</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>430161</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="8">
         <v>466213</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="8">
         <v>486380</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="8">
         <v>474819</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <v>395339</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="8">
         <v>771373</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="8">
+        <v>936159.99999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N203" s="1"/>
+    </row>
+    <row r="204" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N205" s="1"/>
+    </row>
+    <row r="206" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N206" s="1"/>
+    </row>
+    <row r="207" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N207" s="1"/>
+    </row>
+    <row r="208" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N208" s="1"/>
+    </row>
+    <row r="209" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N218" s="1"/>
+    </row>
+    <row r="219" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N219" s="1"/>
+    </row>
+    <row r="220" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N220" s="1"/>
+    </row>
+    <row r="221" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N221" s="1"/>
+    </row>
+    <row r="222" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N222" s="1"/>
+    </row>
+    <row r="223" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N223" s="1"/>
+    </row>
+    <row r="224" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N224" s="1"/>
+    </row>
+    <row r="225" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N225" s="1"/>
+    </row>
+    <row r="226" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N226" s="1"/>
+    </row>
+    <row r="227" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N227" s="1"/>
+    </row>
+    <row r="228" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N228" s="1"/>
+    </row>
+    <row r="229" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N229" s="1"/>
+    </row>
+    <row r="230" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N230" s="1"/>
+    </row>
+    <row r="231" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N231" s="1"/>
+    </row>
+    <row r="232" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N232" s="1"/>
+    </row>
+    <row r="233" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N233" s="1"/>
+    </row>
+    <row r="234" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N234" s="1"/>
+    </row>
+    <row r="235" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N235" s="1"/>
+    </row>
+    <row r="236" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N236" s="1"/>
+    </row>
+    <row r="237" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N237" s="1"/>
+    </row>
+    <row r="238" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N238" s="1"/>
+    </row>
+    <row r="239" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N239" s="1"/>
+    </row>
+    <row r="240" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N240" s="1"/>
+    </row>
+    <row r="241" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N241" s="1"/>
+    </row>
+    <row r="242" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N242" s="1"/>
+    </row>
+    <row r="243" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N243" s="1"/>
+    </row>
+    <row r="244" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N244" s="1"/>
+    </row>
+    <row r="245" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N245" s="1"/>
+    </row>
+    <row r="246" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N246" s="1"/>
+    </row>
+    <row r="247" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N247" s="1"/>
+    </row>
+    <row r="248" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N248" s="1"/>
+    </row>
+    <row r="249" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N249" s="1"/>
+    </row>
+    <row r="250" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N250" s="1"/>
+    </row>
+    <row r="251" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N251" s="1"/>
+    </row>
+    <row r="252" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N252" s="1"/>
+    </row>
+    <row r="253" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N253" s="1"/>
+    </row>
+    <row r="254" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N254" s="1"/>
+    </row>
+    <row r="255" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N255" s="1"/>
+    </row>
+    <row r="256" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N256" s="1"/>
+    </row>
+    <row r="257" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N257" s="1"/>
+    </row>
+    <row r="258" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N258" s="1"/>
+    </row>
+    <row r="259" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N259" s="1"/>
+    </row>
+    <row r="260" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N260" s="1"/>
+    </row>
+    <row r="261" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N261" s="1"/>
+    </row>
+    <row r="262" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N262" s="1"/>
+    </row>
+    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N263" s="1"/>
+    </row>
+    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N264" s="1"/>
+    </row>
+    <row r="265" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N265" s="1"/>
+    </row>
+    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N266" s="1"/>
+    </row>
+    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N267" s="1"/>
+    </row>
+    <row r="268" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N268" s="1"/>
+    </row>
+    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N269" s="1"/>
+    </row>
+    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N270" s="1"/>
+    </row>
+    <row r="271" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N271" s="1"/>
+    </row>
+    <row r="272" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N272" s="1"/>
+    </row>
+    <row r="273" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N273" s="1"/>
+    </row>
+    <row r="274" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N274" s="1"/>
+    </row>
+    <row r="275" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N275" s="1"/>
+    </row>
+    <row r="276" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N276" s="1"/>
+    </row>
+    <row r="277" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N277" s="1"/>
+    </row>
+    <row r="278" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N278" s="1"/>
+    </row>
+    <row r="279" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N279" s="1"/>
+    </row>
+    <row r="280" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N280" s="1"/>
+    </row>
+    <row r="281" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N281" s="1"/>
+    </row>
+    <row r="282" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N282" s="1"/>
+    </row>
+    <row r="283" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N283" s="1"/>
+    </row>
+    <row r="284" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N284" s="1"/>
+    </row>
+    <row r="285" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N285" s="1"/>
+    </row>
+    <row r="286" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N286" s="1"/>
+    </row>
+    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N287" s="1"/>
+    </row>
+    <row r="288" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N288" s="1"/>
+    </row>
+    <row r="289" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N289" s="1"/>
+    </row>
+    <row r="290" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N290" s="1"/>
+    </row>
+    <row r="291" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N291" s="1"/>
+    </row>
+    <row r="292" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N292" s="1"/>
+    </row>
+    <row r="293" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N293" s="1"/>
+    </row>
+    <row r="294" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N294" s="1"/>
+    </row>
+    <row r="295" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N295" s="1"/>
+    </row>
+    <row r="296" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N296" s="1"/>
+    </row>
+    <row r="297" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N297" s="1"/>
+    </row>
+    <row r="298" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N298" s="1"/>
+    </row>
+    <row r="299" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N299" s="1"/>
+    </row>
+    <row r="300" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N300" s="1"/>
+    </row>
+    <row r="301" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N301" s="1"/>
+    </row>
+    <row r="302" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N302" s="1"/>
+    </row>
+    <row r="303" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N303" s="1"/>
+    </row>
+    <row r="304" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N304" s="1"/>
+    </row>
+    <row r="305" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N305" s="1"/>
+    </row>
+    <row r="306" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N306" s="1"/>
+    </row>
+    <row r="307" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N307" s="1"/>
+    </row>
+    <row r="308" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N308" s="1"/>
+    </row>
+    <row r="309" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N309" s="1"/>
+    </row>
+    <row r="310" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N310" s="1"/>
+    </row>
+    <row r="311" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N311" s="1"/>
+    </row>
+    <row r="312" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N312" s="1"/>
+    </row>
+    <row r="313" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N313" s="1"/>
+    </row>
+    <row r="314" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N314" s="1"/>
+    </row>
+    <row r="315" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N315" s="1"/>
+    </row>
+    <row r="316" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N316" s="1"/>
+    </row>
+    <row r="317" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N317" s="1"/>
+    </row>
+    <row r="318" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N318" s="1"/>
+    </row>
+    <row r="319" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N319" s="1"/>
+    </row>
+    <row r="320" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N320" s="1"/>
+    </row>
+    <row r="321" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N321" s="1"/>
+    </row>
+    <row r="322" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N322" s="1"/>
+    </row>
+    <row r="323" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N323" s="1"/>
+    </row>
+    <row r="324" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N324" s="1"/>
+    </row>
+    <row r="325" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N325" s="1"/>
+    </row>
+    <row r="326" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N326" s="1"/>
+    </row>
+    <row r="327" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N327" s="1"/>
+    </row>
+    <row r="328" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N328" s="1"/>
+    </row>
+    <row r="329" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N329" s="1"/>
+    </row>
+    <row r="330" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N330" s="1"/>
+    </row>
+    <row r="331" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N331" s="1"/>
+    </row>
+    <row r="332" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N332" s="1"/>
+    </row>
+    <row r="333" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N333" s="1"/>
+    </row>
+    <row r="334" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N334" s="1"/>
+    </row>
+    <row r="335" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N335" s="1"/>
+    </row>
+    <row r="336" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N336" s="1"/>
+    </row>
+    <row r="337" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N337" s="1"/>
+    </row>
+    <row r="338" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N338" s="1"/>
+    </row>
+    <row r="339" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N339" s="1"/>
+    </row>
+    <row r="340" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N340" s="1"/>
+    </row>
+    <row r="341" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N341" s="1"/>
+    </row>
+    <row r="342" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N342" s="1"/>
+    </row>
+    <row r="343" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N343" s="1"/>
+    </row>
+    <row r="344" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N344" s="1"/>
+    </row>
+    <row r="345" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N345" s="1"/>
+    </row>
+    <row r="346" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N346" s="1"/>
+    </row>
+    <row r="347" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N347" s="1"/>
+    </row>
+    <row r="348" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N348" s="1"/>
+    </row>
+    <row r="349" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N349" s="1"/>
+    </row>
+    <row r="350" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N350" s="1"/>
+    </row>
+    <row r="351" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N351" s="1"/>
+    </row>
+    <row r="352" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N352" s="1"/>
+    </row>
+    <row r="353" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N353" s="1"/>
+    </row>
+    <row r="354" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N354" s="1"/>
+    </row>
+    <row r="355" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N355" s="1"/>
+    </row>
+    <row r="356" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N356" s="1"/>
+    </row>
+    <row r="357" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N357" s="1"/>
+    </row>
+    <row r="358" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N358" s="1"/>
+    </row>
+    <row r="359" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N359" s="1"/>
+    </row>
+    <row r="360" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N360" s="1"/>
+    </row>
+    <row r="361" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N361" s="1"/>
+    </row>
+    <row r="362" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N362" s="1"/>
+    </row>
+    <row r="363" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N363" s="1"/>
+    </row>
+    <row r="364" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N364" s="1"/>
+    </row>
+    <row r="365" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N365" s="1"/>
+    </row>
+    <row r="366" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N366" s="1"/>
+    </row>
+    <row r="367" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N367" s="1"/>
+    </row>
+    <row r="368" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N368" s="1"/>
+    </row>
+    <row r="369" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N369" s="1"/>
+    </row>
+    <row r="370" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N370" s="1"/>
+    </row>
+    <row r="371" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N371" s="1"/>
+    </row>
+    <row r="372" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N372" s="1"/>
+    </row>
+    <row r="373" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N373" s="1"/>
+    </row>
+    <row r="374" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N374" s="1"/>
+    </row>
+    <row r="375" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N375" s="1"/>
+    </row>
+    <row r="376" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N376" s="1"/>
+    </row>
+    <row r="377" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N377" s="1"/>
+    </row>
+    <row r="378" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N378" s="1"/>
+    </row>
+    <row r="379" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N379" s="1"/>
+    </row>
+    <row r="380" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N380" s="1"/>
+    </row>
+    <row r="381" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N381" s="1"/>
+    </row>
+    <row r="382" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N382" s="1"/>
+    </row>
+    <row r="383" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N383" s="1"/>
+    </row>
+    <row r="384" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N384" s="1"/>
+    </row>
+    <row r="385" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N385" s="1"/>
+    </row>
+    <row r="386" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N386" s="1"/>
+    </row>
+    <row r="387" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N387" s="1"/>
+    </row>
+    <row r="388" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N388" s="1"/>
+    </row>
+    <row r="389" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N389" s="1"/>
+    </row>
+    <row r="390" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N390" s="1"/>
+    </row>
+    <row r="391" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N391" s="1"/>
+    </row>
+    <row r="392" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N392" s="1"/>
+    </row>
+    <row r="393" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N393" s="1"/>
+    </row>
+    <row r="394" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N394" s="1"/>
+    </row>
+    <row r="395" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N395" s="1"/>
+    </row>
+    <row r="396" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N396" s="1"/>
+    </row>
+    <row r="397" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N397" s="1"/>
+    </row>
+    <row r="398" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N398" s="1"/>
+    </row>
+    <row r="399" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N399" s="1"/>
+    </row>
+    <row r="400" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N400" s="1"/>
+    </row>
+    <row r="401" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N401" s="1"/>
+    </row>
+    <row r="402" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N402" s="1"/>
+    </row>
+    <row r="403" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N403" s="1"/>
+    </row>
+    <row r="404" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N404" s="1"/>
+    </row>
+    <row r="405" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N405" s="1"/>
+    </row>
+    <row r="406" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N406" s="1"/>
+    </row>
+    <row r="407" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N407" s="1"/>
+    </row>
+    <row r="408" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N408" s="1"/>
+    </row>
+    <row r="409" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N409" s="1"/>
+    </row>
+    <row r="410" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N410" s="1"/>
+    </row>
+    <row r="411" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N411" s="1"/>
+    </row>
+    <row r="412" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N412" s="1"/>
+    </row>
+    <row r="413" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N413" s="1"/>
+    </row>
+    <row r="414" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N414" s="1"/>
+    </row>
+    <row r="415" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N415" s="1"/>
+    </row>
+    <row r="416" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N416" s="1"/>
+    </row>
+    <row r="417" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N417" s="1"/>
+    </row>
+    <row r="418" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N418" s="1"/>
+    </row>
+    <row r="419" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N419" s="1"/>
+    </row>
+    <row r="420" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N420" s="1"/>
+    </row>
+    <row r="421" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N421" s="1"/>
+    </row>
+    <row r="422" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N422" s="1"/>
+    </row>
+    <row r="423" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N423" s="1"/>
+    </row>
+    <row r="424" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N424" s="1"/>
+    </row>
+    <row r="425" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N425" s="1"/>
+    </row>
+    <row r="426" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N426" s="1"/>
+    </row>
+    <row r="427" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N427" s="1"/>
+    </row>
+    <row r="428" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N428" s="1"/>
+    </row>
+    <row r="429" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N429" s="1"/>
+    </row>
+    <row r="430" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N430" s="1"/>
+    </row>
+    <row r="431" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N431" s="1"/>
+    </row>
+    <row r="432" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N432" s="1"/>
+    </row>
+    <row r="433" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N433" s="1"/>
+    </row>
+    <row r="434" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N434" s="1"/>
+    </row>
+    <row r="435" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N435" s="1"/>
+    </row>
+    <row r="436" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N436" s="1"/>
+    </row>
+    <row r="437" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N437" s="1"/>
+    </row>
+    <row r="438" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N438" s="1"/>
+    </row>
+    <row r="439" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N439" s="1"/>
+    </row>
+    <row r="440" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N440" s="1"/>
+    </row>
+    <row r="441" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N441" s="1"/>
+    </row>
+    <row r="442" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N442" s="1"/>
+    </row>
+    <row r="443" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N443" s="1"/>
+    </row>
+    <row r="444" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N444" s="1"/>
+    </row>
+    <row r="445" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N445" s="1"/>
+    </row>
+    <row r="446" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N446" s="1"/>
+    </row>
+    <row r="447" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N447" s="1"/>
+    </row>
+    <row r="448" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N448" s="1"/>
+    </row>
+    <row r="449" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N449" s="1"/>
+    </row>
+    <row r="450" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N450" s="1"/>
+    </row>
+    <row r="451" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N451" s="1"/>
+    </row>
+    <row r="452" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N452" s="1"/>
+    </row>
+    <row r="453" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N453" s="1"/>
+    </row>
+    <row r="454" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N454" s="1"/>
+    </row>
+    <row r="455" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N455" s="1"/>
+    </row>
+    <row r="456" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N456" s="1"/>
+    </row>
+    <row r="457" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N457" s="1"/>
+    </row>
+    <row r="458" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N458" s="1"/>
+    </row>
+    <row r="459" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N459" s="1"/>
+    </row>
+    <row r="460" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N460" s="1"/>
+    </row>
+    <row r="461" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N461" s="1"/>
+    </row>
+    <row r="462" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N462" s="1"/>
+    </row>
+    <row r="463" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N463" s="1"/>
+    </row>
+    <row r="464" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N464" s="1"/>
+    </row>
+    <row r="465" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N465" s="1"/>
+    </row>
+    <row r="466" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N466" s="1"/>
+    </row>
+    <row r="467" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N467" s="1"/>
+    </row>
+    <row r="468" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N468" s="1"/>
+    </row>
+    <row r="469" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N469" s="1"/>
+    </row>
+    <row r="470" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N470" s="1"/>
+    </row>
+    <row r="471" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N471" s="1"/>
+    </row>
+    <row r="472" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N472" s="1"/>
+    </row>
+    <row r="473" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N473" s="1"/>
+    </row>
+    <row r="474" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N474" s="1"/>
+    </row>
+    <row r="475" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N475" s="1"/>
+    </row>
+    <row r="476" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N476" s="1"/>
+    </row>
+    <row r="477" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N477" s="1"/>
+    </row>
+    <row r="478" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N478" s="1"/>
+    </row>
+    <row r="479" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N479" s="1"/>
+    </row>
+    <row r="480" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N480" s="1"/>
+    </row>
+    <row r="481" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N481" s="1"/>
+    </row>
+    <row r="482" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N482" s="1"/>
+    </row>
+    <row r="483" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N483" s="1"/>
+    </row>
+    <row r="484" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N484" s="1"/>
+    </row>
+    <row r="485" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N485" s="1"/>
+    </row>
+    <row r="486" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N486" s="1"/>
+    </row>
+    <row r="487" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N487" s="1"/>
+    </row>
+    <row r="488" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N488" s="1"/>
+    </row>
+    <row r="489" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N489" s="1"/>
+    </row>
+    <row r="490" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N490" s="1"/>
+    </row>
+    <row r="491" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N491" s="1"/>
+    </row>
+    <row r="492" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N492" s="1"/>
+    </row>
+    <row r="493" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N493" s="1"/>
+    </row>
+    <row r="494" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N494" s="1"/>
+    </row>
+    <row r="495" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N495" s="1"/>
+    </row>
+    <row r="496" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N496" s="1"/>
+    </row>
+    <row r="497" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N497" s="1"/>
+    </row>
+    <row r="498" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N498" s="1"/>
+    </row>
+    <row r="499" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N499" s="1"/>
+    </row>
+    <row r="500" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N500" s="1"/>
+    </row>
+    <row r="501" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N501" s="1"/>
+    </row>
+    <row r="502" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N502" s="1"/>
+    </row>
+    <row r="503" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N503" s="1"/>
+    </row>
+    <row r="504" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N504" s="1"/>
+    </row>
+    <row r="505" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N505" s="1"/>
+    </row>
+    <row r="506" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N506" s="1"/>
+    </row>
+    <row r="507" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N507" s="1"/>
+    </row>
+    <row r="508" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N508" s="1"/>
+    </row>
+    <row r="509" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N509" s="1"/>
+    </row>
+    <row r="510" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N510" s="1"/>
+    </row>
+    <row r="511" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N511" s="1"/>
+    </row>
+    <row r="512" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N512" s="1"/>
+    </row>
+    <row r="513" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N513" s="1"/>
+    </row>
+    <row r="514" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N514" s="1"/>
+    </row>
+    <row r="515" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N515" s="1"/>
+    </row>
+    <row r="516" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N516" s="1"/>
+    </row>
+    <row r="517" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N517" s="1"/>
+    </row>
+    <row r="518" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N518" s="1"/>
+    </row>
+    <row r="519" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N519" s="1"/>
+    </row>
+    <row r="520" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N520" s="1"/>
+    </row>
+    <row r="521" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N521" s="1"/>
+    </row>
+    <row r="522" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N522" s="1"/>
+    </row>
+    <row r="523" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N523" s="1"/>
+    </row>
+    <row r="524" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N524" s="1"/>
+    </row>
+    <row r="525" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N525" s="1"/>
+    </row>
+    <row r="526" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N526" s="1"/>
+    </row>
+    <row r="527" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N527" s="1"/>
+    </row>
+    <row r="528" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N528" s="1"/>
+    </row>
+    <row r="529" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N529" s="1"/>
+    </row>
+    <row r="530" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N530" s="1"/>
+    </row>
+    <row r="531" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N531" s="1"/>
+    </row>
+    <row r="532" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N532" s="1"/>
+    </row>
+    <row r="533" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N533" s="1"/>
+    </row>
+    <row r="534" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N534" s="1"/>
+    </row>
+    <row r="535" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N535" s="1"/>
+    </row>
+    <row r="536" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N536" s="1"/>
+    </row>
+    <row r="537" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N537" s="1"/>
+    </row>
+    <row r="538" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N538" s="1"/>
+    </row>
+    <row r="539" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N539" s="1"/>
+    </row>
+    <row r="540" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N540" s="1"/>
+    </row>
+    <row r="541" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N541" s="1"/>
+    </row>
+    <row r="542" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N542" s="1"/>
+    </row>
+    <row r="543" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N543" s="1"/>
+    </row>
+    <row r="544" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N544" s="1"/>
+    </row>
+    <row r="545" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N545" s="1"/>
+    </row>
+    <row r="546" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N546" s="1"/>
+    </row>
+    <row r="547" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N547" s="1"/>
+    </row>
+    <row r="548" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N548" s="1"/>
+    </row>
+    <row r="549" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N549" s="1"/>
+    </row>
+    <row r="550" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N550" s="1"/>
+    </row>
+    <row r="551" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N551" s="1"/>
+    </row>
+    <row r="552" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N552" s="1"/>
+    </row>
+    <row r="553" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N553" s="1"/>
+    </row>
+    <row r="554" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N554" s="1"/>
+    </row>
+    <row r="555" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N555" s="1"/>
+    </row>
+    <row r="556" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N556" s="1"/>
+    </row>
+    <row r="557" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N557" s="1"/>
+    </row>
+    <row r="558" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N558" s="1"/>
+    </row>
+    <row r="559" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N559" s="1"/>
+    </row>
+    <row r="560" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N560" s="1"/>
+    </row>
+    <row r="561" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N561" s="1"/>
+    </row>
+    <row r="562" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N562" s="1"/>
+    </row>
+    <row r="563" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N563" s="1"/>
+    </row>
+    <row r="564" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N564" s="1"/>
+    </row>
+    <row r="565" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N565" s="1"/>
+    </row>
+    <row r="566" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N566" s="1"/>
+    </row>
+    <row r="567" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N567" s="1"/>
+    </row>
+    <row r="568" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N568" s="1"/>
+    </row>
+    <row r="569" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N569" s="1"/>
+    </row>
+    <row r="570" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N570" s="1"/>
+    </row>
+    <row r="571" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N571" s="1"/>
+    </row>
+    <row r="572" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N572" s="1"/>
+    </row>
+    <row r="573" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N573" s="1"/>
+    </row>
+    <row r="574" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N574" s="1"/>
+    </row>
+    <row r="575" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N575" s="1"/>
+    </row>
+    <row r="576" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N576" s="1"/>
+    </row>
+    <row r="577" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N577" s="1"/>
+    </row>
+    <row r="578" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N578" s="1"/>
+    </row>
+    <row r="579" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N579" s="1"/>
+    </row>
+    <row r="580" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N580" s="1"/>
+    </row>
+    <row r="581" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N581" s="1"/>
+    </row>
+    <row r="582" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N582" s="1"/>
+    </row>
+    <row r="583" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N583" s="1"/>
+    </row>
+    <row r="584" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N584" s="1"/>
+    </row>
+    <row r="585" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N585" s="1"/>
+    </row>
+    <row r="586" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N586" s="1"/>
+    </row>
+    <row r="587" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N587" s="1"/>
+    </row>
+    <row r="588" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N588" s="1"/>
+    </row>
+    <row r="589" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N589" s="1"/>
+    </row>
+    <row r="590" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N590" s="1"/>
+    </row>
+    <row r="591" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N591" s="1"/>
+    </row>
+    <row r="592" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N592" s="1"/>
+    </row>
+    <row r="593" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N593" s="1"/>
+    </row>
+    <row r="594" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N594" s="1"/>
+    </row>
+    <row r="595" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N595" s="1"/>
+    </row>
+    <row r="596" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N596" s="1"/>
+    </row>
+    <row r="597" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N597" s="1"/>
+    </row>
+    <row r="598" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N598" s="1"/>
+    </row>
+    <row r="599" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N599" s="1"/>
+    </row>
+    <row r="600" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N600" s="1"/>
+    </row>
+    <row r="601" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N601" s="1"/>
+    </row>
+    <row r="602" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N602" s="1"/>
+    </row>
+    <row r="603" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N603" s="1"/>
+    </row>
+    <row r="604" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N604" s="1"/>
+    </row>
+    <row r="605" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N605" s="1"/>
+    </row>
+    <row r="606" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N606" s="1"/>
+    </row>
+    <row r="607" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N607" s="1"/>
+    </row>
+    <row r="608" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N608" s="1"/>
+    </row>
+    <row r="609" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N609" s="1"/>
+    </row>
+    <row r="610" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N610" s="1"/>
+    </row>
+    <row r="611" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N611" s="1"/>
+    </row>
+    <row r="612" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N612" s="1"/>
+    </row>
+    <row r="613" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N613" s="1"/>
+    </row>
+    <row r="614" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N614" s="1"/>
+    </row>
+    <row r="615" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N615" s="1"/>
+    </row>
+    <row r="616" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N616" s="1"/>
+    </row>
+    <row r="617" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N617" s="1"/>
+    </row>
+    <row r="618" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N618" s="1"/>
+    </row>
+    <row r="619" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N619" s="1"/>
+    </row>
+    <row r="620" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N620" s="1"/>
+    </row>
+    <row r="621" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N621" s="1"/>
+    </row>
+    <row r="622" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N622" s="1"/>
+    </row>
+    <row r="623" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N623" s="1"/>
+    </row>
+    <row r="624" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N624" s="1"/>
+    </row>
+    <row r="625" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N625" s="1"/>
+    </row>
+    <row r="626" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N626" s="1"/>
+    </row>
+    <row r="627" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N627" s="1"/>
+    </row>
+    <row r="628" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N628" s="1"/>
+    </row>
+    <row r="629" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N629" s="1"/>
+    </row>
+    <row r="630" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N630" s="1"/>
+    </row>
+    <row r="631" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N631" s="1"/>
+    </row>
+    <row r="632" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N632" s="1"/>
+    </row>
+    <row r="633" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N633" s="1"/>
+    </row>
+    <row r="634" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N634" s="1"/>
+    </row>
+    <row r="635" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N635" s="1"/>
+    </row>
+    <row r="636" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N636" s="1"/>
+    </row>
+    <row r="637" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N637" s="1"/>
+    </row>
+    <row r="638" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N638" s="1"/>
+    </row>
+    <row r="639" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N639" s="1"/>
+    </row>
+    <row r="640" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N640" s="1"/>
+    </row>
+    <row r="641" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N641" s="1"/>
+    </row>
+    <row r="642" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N642" s="1"/>
+    </row>
+    <row r="643" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N643" s="1"/>
+    </row>
+    <row r="644" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N644" s="1"/>
+    </row>
+    <row r="645" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N645" s="1"/>
+    </row>
+    <row r="646" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N646" s="1"/>
+    </row>
+    <row r="647" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N647" s="1"/>
+    </row>
+    <row r="648" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N648" s="1"/>
+    </row>
+    <row r="649" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N649" s="1"/>
+    </row>
+    <row r="650" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N650" s="1"/>
+    </row>
+    <row r="651" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N651" s="1"/>
+    </row>
+    <row r="652" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N652" s="1"/>
+    </row>
+    <row r="653" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N653" s="1"/>
+    </row>
+    <row r="654" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N654" s="1"/>
+    </row>
+    <row r="655" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N655" s="1"/>
+    </row>
+    <row r="656" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N656" s="1"/>
+    </row>
+    <row r="657" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N657" s="1"/>
+    </row>
+    <row r="658" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N658" s="1"/>
+    </row>
+    <row r="659" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N659" s="1"/>
+    </row>
+    <row r="660" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N660" s="1"/>
+    </row>
+    <row r="661" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N661" s="1"/>
+    </row>
+    <row r="662" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N662" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
